--- a/참고자료/학생-성적데이터(2019-06-26)-Student.xlsx
+++ b/참고자료/학생-성적데이터(2019-06-26)-Student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="학생 데이터" sheetId="1" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3197,8 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4896,7 +4896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
